--- a/data/trans_orig/P16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D561E034-8EC4-4884-BCD0-44FCF0CBB02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31C2273-2B22-4337-BB3A-758A64079412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{763F47F0-84B6-4E23-A032-860499D6B8F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC99632-F52F-413B-8820-004E572AE1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="244">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -136,13 +136,13 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>60,42%</t>
+    <t>65,55%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>71,55%</t>
+    <t>64,47%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -151,13 +151,13 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>39,58%</t>
+    <t>34,45%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>28,45%</t>
+    <t>35,53%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -166,25 +166,25 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>40,75%</t>
+    <t>41,29%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>72,09%</t>
+    <t>60,0%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>59,25%</t>
+    <t>58,71%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>27,91%</t>
+    <t>40,0%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -193,25 +193,25 @@
     <t>85,9%</t>
   </si>
   <si>
-    <t>55,26%</t>
+    <t>55,56%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>74,26%</t>
+    <t>73,97%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>44,74%</t>
+    <t>44,44%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>25,74%</t>
+    <t>26,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -220,343 +220,349 @@
     <t>95,11%</t>
   </si>
   <si>
-    <t>73,84%</t>
+    <t>73,85%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>70,56%</t>
+    <t>63,0%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>79,08%</t>
+    <t>79,76%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>26,16%</t>
+    <t>26,15%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>29,44%</t>
+    <t>37,0%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>20,92%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,91%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>89,62%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
@@ -568,13 +574,13 @@
     <t>90,9%</t>
   </si>
   <si>
-    <t>51,96%</t>
+    <t>61,84%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>65,8%</t>
+    <t>63,52%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -583,55 +589,55 @@
     <t>9,1%</t>
   </si>
   <si>
-    <t>48,04%</t>
+    <t>38,16%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>34,2%</t>
+    <t>36,48%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>64,26%</t>
+    <t>64,09%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>70,29%</t>
+    <t>68,21%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>35,74%</t>
+    <t>35,91%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>31,79%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -667,37 +673,37 @@
     <t>88,19%</t>
   </si>
   <si>
-    <t>41,48%</t>
+    <t>43,03%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>62,23%</t>
+    <t>62,15%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>64,75%</t>
+    <t>67,91%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>58,52%</t>
+    <t>56,97%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>37,77%</t>
+    <t>37,85%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>35,25%</t>
+    <t>32,09%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -715,55 +721,55 @@
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E55A82-B578-4B88-8DB3-3FA0AFEE026C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672DCCCF-476A-40AD-926C-14AB3E4CD104}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2250,7 +2256,7 @@
         <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -2259,13 +2265,13 @@
         <v>127249</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2286,13 @@
         <v>2628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2295,13 +2301,13 @@
         <v>3574</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2310,13 +2316,13 @@
         <v>6203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DB43C1-694C-439A-BDEC-A6E3A3B0BD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE37123-A8FF-4C8D-8C9D-3DECA4A4E04C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2411,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,10 +2524,10 @@
         <v>6135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2533,10 +2539,10 @@
         <v>13951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2548,13 +2554,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2575,13 @@
         <v>2922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2584,13 +2590,13 @@
         <v>976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2599,13 +2605,13 @@
         <v>3898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2679,13 @@
         <v>12696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2688,13 +2694,13 @@
         <v>23116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2703,13 +2709,13 @@
         <v>35812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2730,13 @@
         <v>4736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2739,13 +2745,13 @@
         <v>3782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2754,13 +2760,13 @@
         <v>8518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +2834,10 @@
         <v>14832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2858,10 +2864,10 @@
         <v>33218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2879,13 +2885,13 @@
         <v>879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2909,13 +2915,13 @@
         <v>879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +2989,10 @@
         <v>10918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3013,10 +3019,10 @@
         <v>20697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3034,13 +3040,13 @@
         <v>1085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3064,13 +3070,13 @@
         <v>1085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3144,13 @@
         <v>8859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3168,13 +3174,13 @@
         <v>17349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3195,13 @@
         <v>4429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3219,13 +3225,13 @@
         <v>4429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3302,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3311,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3326,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3350,7 +3356,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3365,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3380,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3454,13 @@
         <v>80888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>89</v>
@@ -3463,13 +3469,13 @@
         <v>96559</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -3478,13 +3484,13 @@
         <v>177448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3505,13 @@
         <v>14051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3514,13 +3520,13 @@
         <v>4759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3529,13 +3535,13 @@
         <v>18809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBDC74A-F00D-41D0-BCF7-4F487BB9C7F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809FD0F6-2905-4784-A307-05DB2F505760}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3752,10 +3758,10 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3767,10 +3773,10 @@
         <v>11726</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3794,7 +3800,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3803,13 +3809,13 @@
         <v>890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3818,13 +3824,13 @@
         <v>890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3898,10 @@
         <v>15580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3907,10 +3913,10 @@
         <v>13137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3922,13 +3928,13 @@
         <v>28717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>2111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3958,13 +3964,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3973,13 +3979,13 @@
         <v>3117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4056,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4065,7 +4071,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4080,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4104,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4119,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4134,7 +4140,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,7 +4211,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4220,7 +4226,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4235,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4259,7 +4265,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4274,7 +4280,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4289,7 +4295,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,10 +4363,10 @@
         <v>8780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4372,10 +4378,10 @@
         <v>15736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4387,10 +4393,10 @@
         <v>24515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4408,13 +4414,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4423,13 +4429,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4438,13 +4444,13 @@
         <v>2995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4521,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4530,7 +4536,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4545,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4569,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4584,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4599,7 +4605,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4673,13 @@
         <v>64832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4682,13 +4688,13 @@
         <v>75164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -4697,13 +4703,13 @@
         <v>139996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4724,13 @@
         <v>3286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4733,13 +4739,13 @@
         <v>3715</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -4748,13 +4754,13 @@
         <v>7001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4816,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31C2273-2B22-4337-BB3A-758A64079412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74A1EFB-6F88-4AFE-A6CD-A6DD2B726E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC99632-F52F-413B-8820-004E572AE1EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C347C439-05F3-4DBA-8925-0A5E8F61943A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="242">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -136,13 +136,13 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>65,55%</t>
+    <t>65,8%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>64,47%</t>
+    <t>74,67%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -151,13 +151,13 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>34,45%</t>
+    <t>34,2%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>35,53%</t>
+    <t>25,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -166,25 +166,25 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>41,29%</t>
+    <t>41,44%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>60,0%</t>
+    <t>71,24%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>58,71%</t>
+    <t>58,56%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>40,0%</t>
+    <t>28,76%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -193,25 +193,25 @@
     <t>85,9%</t>
   </si>
   <si>
-    <t>55,56%</t>
+    <t>55,95%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>73,97%</t>
+    <t>74,08%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>44,44%</t>
+    <t>44,05%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>26,03%</t>
+    <t>25,92%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -220,91 +220,91 @@
     <t>95,11%</t>
   </si>
   <si>
-    <t>73,85%</t>
+    <t>78,6%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>63,0%</t>
+    <t>71,61%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>79,76%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>21,4%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>37,0%</t>
+    <t>28,39%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -316,460 +316,454 @@
     <t>67,74%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>73,53%</t>
+    <t>68,97%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>66,51%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>26,47%</t>
+    <t>31,03%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>75,97%</t>
+    <t>75,01%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
     <t>86,53%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672DCCCF-476A-40AD-926C-14AB3E4CD104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B2E61E-26F4-41A1-B114-BD8699C87FD8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2400,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE37123-A8FF-4C8D-8C9D-3DECA4A4E04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AE8BFC-07C4-46AD-B776-F4A4383128D2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,7 +2524,7 @@
         <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2539,10 +2533,10 @@
         <v>13951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2554,13 +2548,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2569,13 @@
         <v>2922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2590,13 +2584,13 @@
         <v>976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2605,13 +2599,13 @@
         <v>3898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2673,13 @@
         <v>12696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2694,13 +2688,13 @@
         <v>23116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2709,13 +2703,13 @@
         <v>35812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2724,13 @@
         <v>4736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2745,13 +2739,13 @@
         <v>3782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2760,13 +2754,13 @@
         <v>8518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,10 +2828,10 @@
         <v>14832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2864,10 +2858,10 @@
         <v>33218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2885,13 +2879,13 @@
         <v>879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2915,13 +2909,13 @@
         <v>879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +2983,10 @@
         <v>10918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3019,10 +3013,10 @@
         <v>20697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3040,13 +3034,13 @@
         <v>1085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3070,13 +3064,13 @@
         <v>1085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3138,13 @@
         <v>8859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3174,13 +3168,13 @@
         <v>17349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3189,13 @@
         <v>4429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3225,13 +3219,13 @@
         <v>4429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3317,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3332,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3356,7 +3350,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3371,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3386,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3448,13 @@
         <v>80888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>89</v>
@@ -3469,13 +3463,13 @@
         <v>96559</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -3484,13 +3478,13 @@
         <v>177448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3499,13 @@
         <v>14051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3520,13 +3514,13 @@
         <v>4759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3535,13 +3529,13 @@
         <v>18809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809FD0F6-2905-4784-A307-05DB2F505760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F08D7-ADFD-4B0C-8463-5632C45BB70A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3746,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3758,10 +3752,10 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3773,10 +3767,10 @@
         <v>11726</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3800,7 +3794,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3809,13 +3803,13 @@
         <v>890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3824,13 +3818,13 @@
         <v>890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,10 +3892,10 @@
         <v>15580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3949,13 +3943,13 @@
         <v>2111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3964,13 +3958,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3979,13 +3973,13 @@
         <v>3117</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4071,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4086,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4110,7 +4104,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4125,7 +4119,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4140,7 +4134,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4205,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4226,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4235,13 +4229,13 @@
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>16127</v>
+        <v>16128</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4265,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4280,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4295,7 +4289,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>16127</v>
+        <v>16128</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4363,10 +4357,10 @@
         <v>8780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4378,10 +4372,10 @@
         <v>15736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4393,10 +4387,10 @@
         <v>24515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4414,13 +4408,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4429,13 +4423,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4444,13 +4438,13 @@
         <v>2995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4536,7 +4530,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4551,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4575,7 +4569,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4590,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4605,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4667,13 @@
         <v>64832</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4688,13 +4682,13 @@
         <v>75164</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -4703,13 +4697,13 @@
         <v>139996</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4718,13 @@
         <v>3286</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4739,13 +4733,13 @@
         <v>3715</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -4754,13 +4748,13 @@
         <v>7001</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74A1EFB-6F88-4AFE-A6CD-A6DD2B726E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D87461-6B9C-463F-8F94-E77848B15FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C347C439-05F3-4DBA-8925-0A5E8F61943A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{110D2CA4-9057-4B02-B486-3B86521CDA2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -136,502 +136,502 @@
     <t>91,79%</t>
   </si>
   <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>35,74%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>28,4%</t>
+    <t>29,71%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -667,37 +667,37 @@
     <t>88,19%</t>
   </si>
   <si>
-    <t>52,52%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>66,4%</t>
+    <t>64,75%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>47,48%</t>
+    <t>58,52%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>37,77%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>33,6%</t>
+    <t>35,25%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -715,25 +715,25 @@
     <t>95,18%</t>
   </si>
   <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>98,05%</t>
@@ -742,28 +742,28 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
     <t>4,76%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B2E61E-26F4-41A1-B114-BD8699C87FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F654D5-74C8-48C5-8441-92F49EF0DFB5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2250,7 +2250,7 @@
         <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -2259,13 +2259,13 @@
         <v>127249</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2280,13 @@
         <v>2628</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2295,13 +2295,13 @@
         <v>3574</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2310,13 +2310,13 @@
         <v>6203</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AE8BFC-07C4-46AD-B776-F4A4383128D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3070BCB-051C-4842-8CA5-E54A7862BD61}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2411,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,13 +2518,13 @@
         <v>6135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2533,10 +2533,10 @@
         <v>13951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2548,13 +2548,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2569,13 @@
         <v>2922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2584,13 +2584,13 @@
         <v>976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2599,13 +2599,13 @@
         <v>3898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2673,13 @@
         <v>12696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2688,13 +2688,13 @@
         <v>23116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2703,13 +2703,13 @@
         <v>35812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2724,13 @@
         <v>4736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2739,13 +2739,13 @@
         <v>3782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2754,13 +2754,13 @@
         <v>8518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>14832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2858,10 +2858,10 @@
         <v>33218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2879,13 +2879,13 @@
         <v>879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2909,13 +2909,13 @@
         <v>879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +2983,10 @@
         <v>10918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3013,10 +3013,10 @@
         <v>20697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3034,13 +3034,13 @@
         <v>1085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>1085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>8859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3168,13 +3168,13 @@
         <v>17349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3189,13 @@
         <v>4429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3219,13 +3219,13 @@
         <v>4429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3311,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3326,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3350,7 +3350,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>80888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>89</v>
@@ -3463,13 +3463,13 @@
         <v>96559</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -3478,13 +3478,13 @@
         <v>177448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3499,13 @@
         <v>14051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3514,13 +3514,13 @@
         <v>4759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3529,13 +3529,13 @@
         <v>18809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F08D7-ADFD-4B0C-8463-5632C45BB70A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCA413-E763-4E92-900F-C4C4B438125B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3752,10 +3752,10 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3767,10 +3767,10 @@
         <v>11726</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3794,7 +3794,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3803,13 +3803,13 @@
         <v>890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3818,13 +3818,13 @@
         <v>890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3892,10 @@
         <v>15580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3907,10 +3907,10 @@
         <v>13137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3922,13 +3922,13 @@
         <v>28717</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>2111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>16128</v>
+        <v>16127</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -4331,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>16128</v>
+        <v>16127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D87461-6B9C-463F-8F94-E77848B15FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CA1F4D-9AC1-4F41-B90D-98D97670D492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{110D2CA4-9057-4B02-B486-3B86521CDA2B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D781F15F-A06A-4570-8D7B-542805925BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="247">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -127,7 +127,7 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -160,7 +160,7 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>85,41%</t>
@@ -187,7 +187,7 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>85,9%</t>
@@ -214,43 +214,64 @@
     <t>25,74%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
   </si>
   <si>
     <t>95,52%</t>
@@ -487,24 +508,24 @@
     <t>49,81%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>85,2%</t>
   </si>
   <si>
@@ -646,18 +667,12 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
     <t>63,75%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -700,16 +715,16 @@
     <t>35,25%</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>92,68%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
   </si>
   <si>
     <t>95,18%</t>
@@ -1175,8 +1190,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F654D5-74C8-48C5-8441-92F49EF0DFB5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C39995-D072-4B4D-852F-FDFABE67D628}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2068,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>16245</v>
+        <v>8154</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>59</v>
@@ -2083,31 +2098,31 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>19281</v>
+        <v>9901</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>18056</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>36</v>
-      </c>
-      <c r="N19" s="7">
-        <v>35528</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -2125,43 +2140,43 @@
         <v>836</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="7">
+      <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
-        <v>1381</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="N20" s="7">
+        <v>836</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2216</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>17081</v>
+        <v>8990</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2185,10 +2200,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I21" s="7">
-        <v>20662</v>
+        <v>9901</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2200,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N21" s="7">
-        <v>37744</v>
+        <v>18892</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2217,55 +2232,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>56035</v>
+        <v>8091</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9380</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17471</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="7">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7">
-        <v>71216</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="7">
-        <v>127</v>
-      </c>
-      <c r="N22" s="7">
-        <v>127249</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,49 +2289,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>2628</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>3574</v>
+        <v>1381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>6203</v>
+        <v>1381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,63 +2340,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8091</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10761</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>17</v>
+      </c>
+      <c r="N24" s="7">
+        <v>18852</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7">
+        <v>56035</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>71216</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="7">
+        <v>127</v>
+      </c>
+      <c r="N25" s="7">
+        <v>127249</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2628</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3574</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6203</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>59</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>58663</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>74</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>74790</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>133</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>133452</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>87</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2394,8 +2565,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3070BCB-051C-4842-8CA5-E54A7862BD61}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F407762C-67B6-410B-8CCE-3D47626B89DF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2411,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,10 +2689,10 @@
         <v>6135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2533,10 +2704,10 @@
         <v>13951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2548,13 +2719,13 @@
         <v>20086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2740,13 @@
         <v>2922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2584,13 +2755,13 @@
         <v>976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2599,13 +2770,13 @@
         <v>3898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2844,13 @@
         <v>12696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2688,13 +2859,13 @@
         <v>23116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2703,13 +2874,13 @@
         <v>35812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2895,13 @@
         <v>4736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2739,13 +2910,13 @@
         <v>3782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2754,13 +2925,13 @@
         <v>8518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +2999,10 @@
         <v>14832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2858,10 +3029,10 @@
         <v>33218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2879,13 +3050,13 @@
         <v>879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2909,13 +3080,13 @@
         <v>879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +3154,10 @@
         <v>10918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3013,10 +3184,10 @@
         <v>20697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3034,13 +3205,13 @@
         <v>1085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3064,13 +3235,13 @@
         <v>1085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3309,13 @@
         <v>8859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3168,13 +3339,13 @@
         <v>17349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3360,13 @@
         <v>4429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3219,13 +3390,13 @@
         <v>4429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,46 +3458,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27448</v>
+        <v>17581</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9552</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
         <v>21</v>
       </c>
-      <c r="I19" s="7">
-        <v>22837</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
       <c r="N19" s="7">
-        <v>50285</v>
+        <v>27133</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3350,7 +3521,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3365,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3380,7 +3551,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>27448</v>
+        <v>17581</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3404,25 +3575,25 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7">
+        <v>9552</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="7">
         <v>21</v>
       </c>
-      <c r="I21" s="7">
-        <v>22837</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>41</v>
-      </c>
       <c r="N21" s="7">
-        <v>50285</v>
+        <v>27133</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3436,55 +3607,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>80888</v>
+        <v>9867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>12</v>
+      </c>
+      <c r="I22" s="7">
+        <v>13285</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="7">
-        <v>89</v>
-      </c>
-      <c r="I22" s="7">
-        <v>96559</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>20</v>
+      </c>
+      <c r="N22" s="7">
+        <v>23152</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="7">
-        <v>158</v>
-      </c>
-      <c r="N22" s="7">
-        <v>177448</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,49 +3664,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>14051</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>4759</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>18809</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,63 +3715,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9867</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13285</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>20</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23152</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7">
+        <v>80888</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="7">
+        <v>89</v>
+      </c>
+      <c r="I25" s="7">
+        <v>96559</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="7">
+        <v>158</v>
+      </c>
+      <c r="N25" s="7">
+        <v>177448</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>14051</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4759</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="7">
+        <v>17</v>
+      </c>
+      <c r="N26" s="7">
+        <v>18809</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>82</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>94939</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>93</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>101318</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>175</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>196257</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>87</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3613,8 +3940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCA413-E763-4E92-900F-C4C4B438125B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3D5E73-B0CC-40D2-87C7-40BFC34F583E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3630,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3752,10 +4079,10 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3767,10 +4094,10 @@
         <v>11726</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3794,7 +4121,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3803,13 +4130,13 @@
         <v>890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3818,13 +4145,13 @@
         <v>890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +4219,10 @@
         <v>15580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3907,10 +4234,10 @@
         <v>13137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3922,13 +4249,13 @@
         <v>28717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4270,13 @@
         <v>2111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3958,13 +4285,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3973,13 +4300,13 @@
         <v>3117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4065,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4080,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4104,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4119,7 +4446,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4134,7 +4461,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,7 +4532,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4220,7 +4547,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4235,7 +4562,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4259,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4274,7 +4601,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4289,7 +4616,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,10 +4684,10 @@
         <v>8780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4372,10 +4699,10 @@
         <v>15736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4387,10 +4714,10 @@
         <v>24515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4408,13 +4735,13 @@
         <v>1175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4423,13 +4750,13 @@
         <v>1819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4438,13 +4765,13 @@
         <v>2995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,46 +4833,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>10754</v>
+        <v>9102</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8743</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="7">
-        <v>18922</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
       <c r="N19" s="7">
-        <v>29675</v>
+        <v>17845</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -4569,7 +4896,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4584,7 +4911,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4599,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4935,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>10754</v>
+        <v>9102</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4623,25 +4950,25 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8743</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="7">
         <v>15</v>
       </c>
-      <c r="I21" s="7">
-        <v>18922</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>25</v>
-      </c>
       <c r="N21" s="7">
-        <v>29675</v>
+        <v>17845</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4655,55 +4982,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>64832</v>
+        <v>1651</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10179</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>11830</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="7">
-        <v>69</v>
-      </c>
-      <c r="I22" s="7">
-        <v>75164</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M22" s="7">
-        <v>130</v>
-      </c>
-      <c r="N22" s="7">
-        <v>139996</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,49 +5039,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3286</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>3715</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>7001</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,63 +5090,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1651</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10179</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>10</v>
+      </c>
+      <c r="N24" s="7">
+        <v>11830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>64832</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="7">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7">
+        <v>75164</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" s="7">
+        <v>130</v>
+      </c>
+      <c r="N25" s="7">
+        <v>139996</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3286</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3715</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7001</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>64</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>68118</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>72</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>78879</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>136</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>146997</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>87</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
